--- a/GHMonitoringCenterApi.Domain.Shared/Template/Excel/BasePlanLineProjectTemplate.xlsx
+++ b/GHMonitoringCenterApi.Domain.Shared/Template/Excel/BasePlanLineProjectTemplate.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>基准计划</t>
   </si>
@@ -35,81 +35,45 @@
     <t>项目名称</t>
   </si>
   <si>
-    <t>船舶名称</t>
+    <t>PG码</t>
   </si>
   <si>
     <t>年度</t>
   </si>
   <si>
-    <t>一月份产量</t>
-  </si>
-  <si>
     <t>一月份产值</t>
   </si>
   <si>
-    <t>二月份产量</t>
-  </si>
-  <si>
     <t>二月份产值</t>
   </si>
   <si>
-    <t>三月份产量</t>
-  </si>
-  <si>
     <t>三月份产值</t>
   </si>
   <si>
-    <t>四月份产量</t>
-  </si>
-  <si>
     <t>四月份产值</t>
   </si>
   <si>
-    <t>五月份产量</t>
-  </si>
-  <si>
     <t>五月份产值</t>
   </si>
   <si>
-    <t>六月份产量</t>
-  </si>
-  <si>
     <t>六月份产值</t>
   </si>
   <si>
-    <t>七月份产量</t>
-  </si>
-  <si>
     <t>七月份产值</t>
   </si>
   <si>
-    <t>八月份产量</t>
-  </si>
-  <si>
     <t>八月份产值</t>
   </si>
   <si>
-    <t>九月份产量</t>
-  </si>
-  <si>
     <t>九月份产值</t>
   </si>
   <si>
-    <t>十月份产量</t>
-  </si>
-  <si>
     <t>十月份产值</t>
   </si>
   <si>
-    <t>十一月份产量</t>
-  </si>
-  <si>
     <t>十一月份产值</t>
   </si>
   <si>
-    <t>十二月份产量</t>
-  </si>
-  <si>
     <t>十二月份产值</t>
   </si>
   <si>
@@ -120,42 +84,6 @@
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>OnePlanProductionValue</t>
-  </si>
-  <si>
-    <t>TwoPlanProductionValue</t>
-  </si>
-  <si>
-    <t>ThreePlanProductionValue</t>
-  </si>
-  <si>
-    <t>FourPlanProductionValue</t>
-  </si>
-  <si>
-    <t>FivePlanProductionValue</t>
-  </si>
-  <si>
-    <t>SixPlanProductionValue</t>
-  </si>
-  <si>
-    <t>SevenPlanProductionValue</t>
-  </si>
-  <si>
-    <t>EightPlanProductionValue</t>
-  </si>
-  <si>
-    <t>NinePlanProductionValue</t>
-  </si>
-  <si>
-    <t>TenPlanProductionValue</t>
-  </si>
-  <si>
-    <t>ElevenPlanProductionValue</t>
-  </si>
-  <si>
-    <t>TwelvePlanProductionValue</t>
   </si>
   <si>
     <t>{{ProjectPlan.ProjectId}}</t>
@@ -796,24 +724,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1140,230 +1059,132 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="9" style="2" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="38.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="3" customWidth="1"/>
-    <col min="4" max="24" width="11.25" style="2" customWidth="1"/>
-    <col min="25" max="25" width="14.625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="14.5" style="2" customWidth="1"/>
-    <col min="27" max="27" width="13.25" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="2"/>
+    <col min="3" max="14" width="11.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.75" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="2:27">
-      <c r="B1" s="4" t="s">
+    <row r="1" ht="22.5" spans="2:15">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="17.25" spans="2:28">
-      <c r="B2" s="6" t="s">
+    <row r="2" s="1" customFormat="1" ht="17.25" spans="2:16">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="6" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" ht="17.25" hidden="1" spans="1:15">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="17.25" hidden="1" spans="1:27">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:AA1"/>
+    <mergeCell ref="B1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/GHMonitoringCenterApi.Domain.Shared/Template/Excel/BasePlanLineProjectTemplate.xlsx
+++ b/GHMonitoringCenterApi.Domain.Shared/Template/Excel/BasePlanLineProjectTemplate.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>基准计划</t>
+    <t>基准计划（项目名称及年度为必填项）</t>
   </si>
   <si>
     <t>项目名称</t>
@@ -99,7 +99,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +122,12 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -594,141 +600,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1062,7 +1071,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3"/>
@@ -1097,43 +1106,43 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1144,43 +1153,43 @@
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/GHMonitoringCenterApi.Domain.Shared/Template/Excel/BasePlanLineProjectTemplate.xlsx
+++ b/GHMonitoringCenterApi.Domain.Shared/Template/Excel/BasePlanLineProjectTemplate.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>基准计划（项目名称及年度为必填项）</t>
   </si>
@@ -75,15 +75,6 @@
   </si>
   <si>
     <t>十二月份产值</t>
-  </si>
-  <si>
-    <t>ProjectId</t>
-  </si>
-  <si>
-    <t>ProjectName</t>
-  </si>
-  <si>
-    <t>Year</t>
   </si>
   <si>
     <t>{{ProjectPlan.ProjectId}}</t>
@@ -1068,13 +1059,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="9" style="2" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="38.625" style="2" customWidth="1"/>
@@ -1149,47 +1140,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="17.25" hidden="1" spans="1:15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/GHMonitoringCenterApi.Domain.Shared/Template/Excel/BasePlanLineProjectTemplate.xlsx
+++ b/GHMonitoringCenterApi.Domain.Shared/Template/Excel/BasePlanLineProjectTemplate.xlsx
@@ -29,52 +29,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>基准计划（项目名称及年度为必填项）</t>
+    <t>基准计划（项目名称为必填项）</t>
   </si>
   <si>
     <t>项目名称</t>
   </si>
   <si>
-    <t>PG码</t>
-  </si>
-  <si>
-    <t>年度</t>
-  </si>
-  <si>
-    <t>一月份产值</t>
-  </si>
-  <si>
-    <t>二月份产值</t>
-  </si>
-  <si>
-    <t>三月份产值</t>
-  </si>
-  <si>
-    <t>四月份产值</t>
-  </si>
-  <si>
-    <t>五月份产值</t>
-  </si>
-  <si>
-    <t>六月份产值</t>
-  </si>
-  <si>
-    <t>七月份产值</t>
-  </si>
-  <si>
-    <t>八月份产值</t>
-  </si>
-  <si>
-    <t>九月份产值</t>
-  </si>
-  <si>
-    <t>十月份产值</t>
-  </si>
-  <si>
-    <t>十一月份产值</t>
-  </si>
-  <si>
-    <t>十二月份产值</t>
+    <t>主数据编码</t>
+  </si>
+  <si>
+    <t>管理单位</t>
+  </si>
+  <si>
+    <t>1月计划</t>
+  </si>
+  <si>
+    <t>2月计划</t>
+  </si>
+  <si>
+    <t>3月计划</t>
+  </si>
+  <si>
+    <t>4月计划</t>
+  </si>
+  <si>
+    <t>5月计划</t>
+  </si>
+  <si>
+    <t>6月计划</t>
+  </si>
+  <si>
+    <t>7月计划</t>
+  </si>
+  <si>
+    <t>8月计划</t>
+  </si>
+  <si>
+    <t>9月计划</t>
+  </si>
+  <si>
+    <t>10月计划</t>
+  </si>
+  <si>
+    <t>11月计划</t>
+  </si>
+  <si>
+    <t>12月计划</t>
   </si>
   <si>
     <t>{{ProjectPlan.ProjectId}}</t>
@@ -99,10 +99,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -117,9 +119,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -267,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,12 +279,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -467,12 +464,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -597,7 +609,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,130 +621,132 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1059,10 +1073,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2"/>
@@ -1093,50 +1107,50 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="17.25" spans="2:16">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:15">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
